--- a/src/test/resources/DataDriven/EjecucionQlikSenseMedellin.xlsx
+++ b/src/test/resources/DataDriven/EjecucionQlikSenseMedellin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jorge Enrique Lozano Lemos\Disco Local D\AutomatizacionQlik\qliksense\src\test\resources\DataDriven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jorge Enrique\Disco D\QlikGit\Pruebas2\src\test\resources\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE3D3C7-467F-421B-B3B5-CECF1D590FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42542443-F2FE-4E3A-A282-7D6F9DF64A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{5A249DB8-7D6E-44BB-B0B7-DE3B7E16BD21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A249DB8-7D6E-44BB-B0B7-DE3B7E16BD21}"/>
   </bookViews>
   <sheets>
     <sheet name="QlikSenseMedellin" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>nombreQvf</t>
   </si>
   <si>
-    <t>ConteosOracleVsAthena</t>
+    <t>Verificacion Enmascaramiento Sql Server</t>
   </si>
   <si>
-    <t>Verificacion conteos Athena</t>
+    <t>ConteosOracleVsAthena</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
